--- a/public/data/profit/profit_table_chad.xlsx
+++ b/public/data/profit/profit_table_chad.xlsx
@@ -1507,7 +1507,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>-1.04</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -1525,7 +1525,7 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>-1.04</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -1747,7 +1747,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>-11.42</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1765,7 +1765,7 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>-10.95</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
         <v>0</v>
@@ -2307,7 +2307,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>-4.5</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -2325,7 +2325,7 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>-4.7</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -2387,7 +2387,7 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>-22.64</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -2405,7 +2405,7 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>-11.45</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -2467,7 +2467,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>-16.75</v>
+        <v>-25.53</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -2485,7 +2485,7 @@
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>-12.38</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
         <v>0</v>
@@ -2500,7 +2500,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>-3.89</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -3027,7 +3027,7 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>-1.91</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -3045,7 +3045,7 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>-1.17</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -3347,7 +3347,7 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>-5.03</v>
+        <v>1.71</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
@@ -3362,25 +3362,25 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>-7.63</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>6.76</v>
+        <v>92.24</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>-8.87</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>-8.97</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.65</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -3389,7 +3389,7 @@
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>-8.56</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
@@ -3398,7 +3398,7 @@
         <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>-7.92</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
@@ -4147,7 +4147,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>-5.48</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -4162,25 +4162,25 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>-5.55</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>-0.42</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
         <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>-5.68</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>-5.67</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>-4.59</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -4189,7 +4189,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>-5.63</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -4198,7 +4198,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>-5.48</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -4947,7 +4947,7 @@
         <v>0</v>
       </c>
       <c r="F47" t="n">
-        <v>-14.76</v>
+        <v>0</v>
       </c>
       <c r="G47" t="n">
         <v>0</v>
@@ -4965,7 +4965,7 @@
         <v>0</v>
       </c>
       <c r="L47" t="n">
-        <v>-8.82</v>
+        <v>0</v>
       </c>
       <c r="M47" t="n">
         <v>0</v>
@@ -5587,7 +5587,7 @@
         <v>0</v>
       </c>
       <c r="F55" t="n">
-        <v>-13.31</v>
+        <v>0</v>
       </c>
       <c r="G55" t="n">
         <v>0</v>
@@ -5605,7 +5605,7 @@
         <v>0</v>
       </c>
       <c r="L55" t="n">
-        <v>-13.16</v>
+        <v>0</v>
       </c>
       <c r="M55" t="n">
         <v>0</v>
